--- a/biology/Botanique/Anarthriaceae/Anarthriaceae.xlsx
+++ b/biology/Botanique/Anarthriaceae/Anarthriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Anarthriaceae est une famille de plantes monocotylédones. Ce sont des plantes herbacées à l'aspect de jonc des zones tempérées du sud ouest de l'Australie.
-La classification phylogénétique APG IV (2016)[1] replace les espèces dans la famille des Restionaceae.
+La classification phylogénétique APG IV (2016) replace les espèces dans la famille des Restionaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Anarthria qui dérive du grec ancien αν / an (privatif) et άρθρ / arthr, articulation, « sans articulation »[2],[3], en référence à l'aspect "désarticulé" des inflorescences de cette plante.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Anarthria qui dérive du grec ancien αν / an (privatif) et άρθρ / arthr, articulation, « sans articulation » en référence à l'aspect "désarticulé" des inflorescences de cette plante.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille n'existait pas en classification classique de Cronquist (1981)[4].
-La classification phylogénétique APG II (2003)[5] situe cette famille dans l'ordre des Poales.
-La classification phylogénétique APG IV (2016)[1] laisse les espèces dans l'ordre des Poales mais les replace dans la famille des Restionaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille n'existait pas en classification classique de Cronquist (1981).
+La classification phylogénétique APG II (2003) situe cette famille dans l'ordre des Poales.
+La classification phylogénétique APG IV (2016) laisse les espèces dans l'ordre des Poales mais les replace dans la famille des Restionaceae.
 </t>
         </is>
       </c>
@@ -576,13 +592,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (19 avr. 2010)[6], World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010)[7] &amp; NCBI  (19 avr. 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (19 avr. 2010), World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010) &amp; NCBI  (19 avr. 2010) :
 genre Anarthria  R.Br. (1810)
 genre Hopkinsia  W.Fitzg. (1904)
 genre Lyginia  R.Br. (1810)
-Selon DELTA Angio           (19 avr. 2010)[9] :
+Selon DELTA Angio           (19 avr. 2010) :
 genre Anarthria</t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010) :
 genre Anarthria  R.Br. (1810)
 Anarthria gracilis  R.Br. (1810)
 Anarthria humilis  Nees (1841)
@@ -628,7 +648,7 @@
 Lyginia barbata  R.Br. (1810)
 Lyginia excelsa  B.G.Briggs &amp; L.A.S.Johnson (2000)
 Lyginia imberbis  R.Br. (1810)
-Selon NCBI  (19 avr. 2010)[8] :
+Selon NCBI  (19 avr. 2010) :
 genre Anarthria
 Anarthria humilis
 Anarthria polyphylla
